--- a/01_Documentation/02_resources/excel/control-tc002-error-handling.xlsx
+++ b/01_Documentation/02_resources/excel/control-tc002-error-handling.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Preparation</t>
   </si>
@@ -95,12 +95,18 @@
       <t xml:space="preserve"> to point to "not-a-database.db"</t>
     </r>
   </si>
+  <si>
+    <t>The app exited with "ERROR: Cannot access the file: xyz.db" and the return code was 10</t>
+  </si>
+  <si>
+    <t>The app exited with "ERROR: Cannot query database" and the return code was 29</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +128,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -579,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +679,9 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -750,16 +766,18 @@
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -774,7 +792,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -791,15 +809,6 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
